--- a/especiales.xlsx
+++ b/especiales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8355" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3068,10 +3068,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3088,9 +3088,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3105,14 +3164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3120,60 +3172,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3188,29 +3195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3219,16 +3203,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3241,49 +3241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3307,13 +3283,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,19 +3349,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3355,73 +3421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3432,6 +3432,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3446,6 +3490,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3469,66 +3528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3537,13 +3537,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3558,127 +3558,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13076,11 +13076,11 @@
   <dimension ref="A1:M360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="110" topLeftCell="E206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="110" topLeftCell="E201" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L321" sqref="L321"/>
+      <selection pane="bottomRight" activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -14330,7 +14330,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" hidden="1" spans="1:13">
       <c r="A111" t="s">
         <v>704</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" hidden="1" spans="1:13">
       <c r="A113" t="s">
         <v>704</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:9">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>714</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" hidden="1" spans="1:8">
       <c r="A117" t="s">
         <v>718</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" hidden="1" spans="1:12">
       <c r="A120" t="s">
         <v>718</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" hidden="1" spans="1:8">
       <c r="A122" t="s">
         <v>714</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:10">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>714</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" hidden="1" spans="1:8">
       <c r="A125" t="s">
         <v>712</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" hidden="1" spans="1:8">
       <c r="A128" t="s">
         <v>718</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" hidden="1" spans="1:12">
       <c r="A130" t="s">
         <v>712</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:9">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>712</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" t="s">
         <v>718</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" hidden="1" spans="1:8">
       <c r="A135" t="s">
         <v>712</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" hidden="1" spans="1:8">
       <c r="A138" t="s">
         <v>712</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" hidden="1" spans="1:6">
       <c r="A142" t="s">
         <v>712</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:9">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>712</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" hidden="1" spans="1:8">
       <c r="A147" t="s">
         <v>714</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:10">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>714</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" hidden="1" spans="1:8">
       <c r="A156" t="s">
         <v>712</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:10">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>712</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" hidden="1" spans="1:8">
       <c r="A160" t="s">
         <v>712</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:13">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>704</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:10">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>712</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" hidden="1" spans="1:8">
       <c r="A170" t="s">
         <v>712</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" hidden="1" spans="1:13">
       <c r="A173" t="s">
         <v>704</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" t="s">
         <v>712</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:10">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>712</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" hidden="1" spans="1:13">
       <c r="A177" t="s">
         <v>712</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" hidden="1" spans="1:8">
       <c r="A181" t="s">
         <v>718</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" hidden="1" spans="1:8">
       <c r="A185" t="s">
         <v>718</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" hidden="1" spans="1:8">
       <c r="A187" t="s">
         <v>712</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:9">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>712</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:9">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>718</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:13">
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
         <v>712</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" hidden="1" spans="1:8">
       <c r="A195" t="s">
         <v>718</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" hidden="1" spans="1:8">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:9">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>712</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" hidden="1" spans="1:8">
       <c r="A199" t="s">
         <v>712</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" hidden="1" spans="1:13">
       <c r="A201" t="s">
         <v>704</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" hidden="1" spans="1:8">
       <c r="A206" t="s">
         <v>712</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:13">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>712</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:9">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>712</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" hidden="1" spans="1:8">
       <c r="A214" t="s">
         <v>712</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:10">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>712</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" hidden="1" spans="1:8">
       <c r="A217" t="s">
         <v>712</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:10">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>712</v>
       </c>
@@ -16420,9 +16420,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:13">
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C223" t="s">
         <v>705</v>
@@ -16463,7 +16463,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" hidden="1" spans="1:8">
       <c r="A225" t="s">
         <v>712</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:9">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>718</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" hidden="1" spans="1:8">
       <c r="A228" t="s">
         <v>718</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" hidden="1" spans="1:8">
       <c r="A230" t="s">
         <v>712</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:9">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>712</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" hidden="1" spans="1:8">
       <c r="A235" t="s">
         <v>712</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" hidden="1" spans="1:8">
       <c r="A236" t="s">
         <v>718</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:9">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>712</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:9">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>714</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" hidden="1" spans="1:8">
       <c r="A244" t="s">
         <v>718</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" hidden="1" spans="1:8">
       <c r="A246" t="s">
         <v>712</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" hidden="1" spans="1:8">
       <c r="A247" t="s">
         <v>712</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" hidden="1" spans="1:8">
       <c r="A248" t="s">
         <v>712</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" hidden="1" spans="1:8">
       <c r="A251" t="s">
         <v>712</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:10">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>712</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:13">
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>718</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" hidden="1" spans="1:13">
       <c r="A257" t="s">
         <v>712</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:10">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>718</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:9">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>714</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" hidden="1" spans="1:8">
       <c r="A266" t="s">
         <v>714</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:9">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>714</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" hidden="1" spans="1:8">
       <c r="A270" t="s">
         <v>718</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" hidden="1" spans="1:8">
       <c r="A294" t="s">
         <v>704</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:9">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
         <v>712</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" hidden="1" spans="1:8">
       <c r="A297" t="s">
         <v>718</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" hidden="1" spans="1:8">
       <c r="A302" t="s">
         <v>712</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:13">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>712</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" hidden="1" spans="1:7">
       <c r="A306" t="s">
         <v>718</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" hidden="1" spans="1:8">
       <c r="A308" t="s">
         <v>712</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:9">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>712</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" hidden="1" spans="1:8">
       <c r="A311" t="s">
         <v>712</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" hidden="1" spans="1:8">
       <c r="A314" t="s">
         <v>718</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" hidden="1" spans="1:8">
       <c r="A315" t="s">
         <v>712</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:9">
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>718</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" hidden="1" spans="1:8">
       <c r="A318" t="s">
         <v>718</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" hidden="1" spans="1:8">
       <c r="A320" t="s">
         <v>712</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" hidden="1" spans="1:8">
       <c r="A321" t="s">
         <v>712</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:13">
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
         <v>951</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" hidden="1" spans="1:8">
       <c r="A327" t="s">
         <v>712</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:9">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>712</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:9">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>714</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" hidden="1" spans="1:12">
       <c r="A333" t="s">
         <v>718</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" hidden="1" spans="1:8">
       <c r="A334" t="s">
         <v>712</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:9">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>714</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" hidden="1" spans="1:8">
       <c r="A339" t="s">
         <v>714</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" hidden="1" spans="1:8">
       <c r="A340" t="s">
         <v>714</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:9">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>714</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" hidden="1" spans="1:8">
       <c r="A343" t="s">
         <v>718</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:13">
+    <row r="347" spans="1:13">
       <c r="A347" t="s">
         <v>704</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:10">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>712</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:10">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>712</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:13">
+    <row r="354" spans="1:13">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" hidden="1" spans="1:8">
       <c r="A356" t="s">
         <v>704</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:9">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" hidden="1" spans="1:8">
       <c r="A360" t="s">
         <v>712</v>
       </c>
@@ -18919,7 +18919,7 @@
     </filterColumn>
     <filterColumn colId="4">
       <customFilters>
-        <customFilter operator="equal" val=".frm"/>
+        <customFilter operator="equal" val=".vis"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="11">
